--- a/code/src/main/resources/allAlgosIncr.xlsx
+++ b/code/src/main/resources/allAlgosIncr.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="optValues" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="runningTimes" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="optValues" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="runningTimes" r:id="rId3" sheetId="2" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
   <si>
     <t xml:space="preserve">Instance</t>
   </si>
@@ -48,6 +48,330 @@
   </si>
   <si>
     <t xml:space="preserve">DL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">br17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftv33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1293.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1321.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1295.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftv35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1401.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1406.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERROR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftv38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1494.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftv44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1670.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1680.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftv47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1633.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ry48p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15535.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7410.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6905.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftv55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1463.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1467.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftv64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1798.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1801.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftv70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1919.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1936.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39047.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38673.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kro124p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40766.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftv170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3238.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3247.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rbg323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1326.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rbg358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1163.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rbg403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2465.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rbg443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2720.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.260916476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170335726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112564039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.15E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.241524967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59916563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30956779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2076E-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.071E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.575E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.326E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271252338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09121619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480901674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.607E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308160203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.745765297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.880320197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.549E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827581253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.397664251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.473922922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.515743016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508333994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.641705734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.6954E-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460131309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.300217827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.863E-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507649153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.803964486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.327E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.619218543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.723883169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.635831308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.197624266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.749073334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.629E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.585E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.473E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1023E-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.984411097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.602372326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.622833612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.962E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.201544115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19578992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.742376641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.895E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.524665365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.034187813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95385936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.382E-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.243478844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.872174839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.784735727</t>
+  </si>
+  <si>
+    <t>ftv33</t>
+  </si>
+  <si>
+    <t>1295.0</t>
+  </si>
+  <si>
+    <t>-5.341E-6</t>
   </si>
 </sst>
 </file>
@@ -89,7 +413,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -98,65 +422,68 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" name="Percent" xfId="19"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F6" activeCellId="0" pane="topLeft" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <cols>
+    <col min="1024" max="1024" customWidth="true" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -170,28 +497,348 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -200,19 +847,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:G3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E6" activeCellId="0" pane="topLeft" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
+  <cols>
+    <col min="1024" max="1024" customWidth="true" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="0"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -226,31 +876,348 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
